--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13120" yWindow="4100" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="13360" yWindow="2560" windowWidth="35960" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Num intervention</t>
   </si>
@@ -50,12 +50,18 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>logtime</t>
+  </si>
+  <si>
+    <t>time / 1 MC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +107,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -125,7 +139,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,8 +153,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,25 +190,432 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time / 1 MC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2135588664"/>
+        <c:axId val="-2138011608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2135588664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scaling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> factor</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138011608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2138011608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135588664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>logtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.531478917042255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.633468455579586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.222716471147583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.780317312140151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2132119048"/>
+        <c:axId val="-2132524040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2132119048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132524040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2132524040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132119048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289035</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>674414</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>770758</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402896</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>62186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K2"/>
+  <dimension ref="B1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -519,11 +956,12 @@
     <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="24" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="2" customFormat="1" ht="30">
+    <row r="1" spans="2:17" s="2" customFormat="1" ht="30">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
@@ -555,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:17">
       <c r="B2" s="5">
         <v>42677</v>
       </c>
@@ -584,14 +1022,301 @@
         <f>F2*E2*G2/H2</f>
         <v>16</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <f>I2/J2</f>
         <v>5.55</v>
+      </c>
+      <c r="L2">
+        <f>G2*F2*E2</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="5">
+        <v>42681</v>
+      </c>
+      <c r="C3" s="1">
+        <v>900</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="J3" s="3">
+        <f>F3*E3*G3/H3</f>
+        <v>24</v>
+      </c>
+      <c r="K3" s="7">
+        <f>I3/J3</f>
+        <v>10.920833333333334</v>
+      </c>
+      <c r="L3">
+        <f>G3*F3*E3</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C4" s="1">
+        <v>900</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J4" s="3">
+        <f>F4*E4*G4/H4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <f>I4/J4</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L4">
+        <f>G4*F4*E4</f>
+        <v>20</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C5" s="1">
+        <v>900</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="J5" s="3">
+        <f>F5*E5*G5/H5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <f>I5/J5</f>
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <f>G5*F5*E5</f>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f>C5</f>
+        <v>900</v>
+      </c>
+      <c r="P5" s="8">
+        <f>(K5)</f>
+        <v>3.4</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>LOG(P5)</f>
+        <v>0.53147891704225514</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C6" s="1">
+        <v>600</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="J6" s="3">
+        <f>F6*E6*G6/H6</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <f>I6/J6</f>
+        <v>4.3</v>
+      </c>
+      <c r="L6">
+        <f>G6*F6*E6</f>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f>C6</f>
+        <v>600</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6" si="0">(K6)</f>
+        <v>4.3</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>LOG(P6)</f>
+        <v>0.63346845557958653</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C7" s="1">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="J7" s="3">
+        <f>F7*E7*G7/H7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <f>I7/J7</f>
+        <v>16.7</v>
+      </c>
+      <c r="L7">
+        <f>G7*F7*E7</f>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>C7</f>
+        <v>300</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" ref="P7:P8" si="1">(K7)</f>
+        <v>16.7</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q8" si="2">LOG(P7)</f>
+        <v>1.2227164711475833</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="5">
+        <v>42682</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>F8*E8*G8/H8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <f>I8/J8</f>
+        <v>60.3</v>
+      </c>
+      <c r="L8">
+        <f>G8*F8*E8</f>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f>C8</f>
+        <v>100</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="1"/>
+        <v>60.3</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7803173121401512</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="2560" windowWidth="35960" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="5680" yWindow="5720" windowWidth="35960" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,8 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -169,8 +181,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,8 +217,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -215,6 +246,9 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -229,6 +263,9 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -250,10 +287,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -276,10 +309,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$10</c:f>
+              <c:f>Sheet1!$O$5:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>900.0</c:v>
                 </c:pt>
@@ -290,17 +323,17 @@
                   <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$P$10</c:f>
+              <c:f>Sheet1!$P$5:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -312,6 +345,47 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,11 +400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2135588664"/>
-        <c:axId val="-2138011608"/>
+        <c:axId val="2112276072"/>
+        <c:axId val="2112283112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2135588664"/>
+        <c:axId val="2112276072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,12 +438,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138011608"/>
+        <c:crossAx val="2112283112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138011608"/>
+        <c:axId val="2112283112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135588664"/>
+        <c:crossAx val="2112276072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -430,10 +504,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -470,7 +540,7 @@
                   <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,6 +562,50 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.780317312140151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>optim</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.491361693834273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.986771734266245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.724275869600789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,11 +620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132119048"/>
-        <c:axId val="-2132524040"/>
+        <c:axId val="2112345016"/>
+        <c:axId val="2112348008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132119048"/>
+        <c:axId val="2112345016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,12 +634,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132524040"/>
+        <c:crossAx val="2112348008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132524040"/>
+        <c:axId val="2112348008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132119048"/>
+        <c:crossAx val="2112345016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -940,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q8"/>
+  <dimension ref="B1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1003,31 +1117,31 @@
       <c r="D2" s="1">
         <v>2.1</v>
       </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
         <v>8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>10</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <v>10</v>
       </c>
       <c r="I2" s="6">
         <v>88.8</v>
       </c>
       <c r="J2" s="3">
-        <f>F2*E2*G2/H2</f>
+        <f t="shared" ref="J2:J8" si="0">F2*E2*G2/H2</f>
         <v>16</v>
       </c>
       <c r="K2" s="7">
-        <f>I2/J2</f>
+        <f t="shared" ref="K2:K8" si="1">I2/J2</f>
         <v>5.55</v>
       </c>
       <c r="L2">
-        <f>G2*F2*E2</f>
+        <f t="shared" ref="L2:L8" si="2">G2*F2*E2</f>
         <v>160</v>
       </c>
     </row>
@@ -1041,31 +1155,31 @@
       <c r="D3" s="1">
         <v>2.1</v>
       </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
         <v>12</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>20</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>20</v>
       </c>
       <c r="I3" s="6">
         <v>262.10000000000002</v>
       </c>
       <c r="J3" s="3">
-        <f>F3*E3*G3/H3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K3" s="7">
-        <f>I3/J3</f>
+        <f t="shared" si="1"/>
         <v>10.920833333333334</v>
       </c>
       <c r="L3">
-        <f>G3*F3*E3</f>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
@@ -1079,31 +1193,31 @@
       <c r="D4" s="1">
         <v>2.1</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
         <v>20</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>20</v>
       </c>
       <c r="I4" s="6">
         <v>9.3000000000000007</v>
       </c>
       <c r="J4" s="3">
-        <f>F4*E4*G4/H4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4" s="7">
-        <f>I4/J4</f>
+        <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="L4">
-        <f>G4*F4*E4</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="P4" s="9" t="s">
@@ -1123,35 +1237,35 @@
       <c r="D5" s="1">
         <v>2.1</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
         <v>2</v>
       </c>
       <c r="I5" s="6">
         <v>3.4</v>
       </c>
       <c r="J5" s="3">
-        <f>F5*E5*G5/H5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K5" s="7">
-        <f>I5/J5</f>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
       <c r="L5">
-        <f>G5*F5*E5</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O5">
-        <f>C5</f>
+        <f t="shared" ref="O5:O11" si="3">C5</f>
         <v>900</v>
       </c>
       <c r="P5" s="8">
@@ -1159,8 +1273,8 @@
         <v>3.4</v>
       </c>
       <c r="Q5" s="1">
-        <f>LOG(P5)</f>
-        <v>0.53147891704225514</v>
+        <f>LOG(P5,10)</f>
+        <v>0.53147891704225503</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -1173,44 +1287,44 @@
       <c r="D6" s="1">
         <v>2.1</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
         <v>2</v>
       </c>
       <c r="I6" s="6">
         <v>4.3</v>
       </c>
       <c r="J6" s="3">
-        <f>F6*E6*G6/H6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K6" s="7">
-        <f>I6/J6</f>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="L6">
-        <f>G6*F6*E6</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O6">
-        <f>C6</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" ref="P6" si="0">(K6)</f>
+        <f t="shared" ref="P6" si="4">(K6)</f>
         <v>4.3</v>
       </c>
       <c r="Q6" s="1">
-        <f>LOG(P6)</f>
-        <v>0.63346845557958653</v>
+        <f t="shared" ref="Q6:Q11" si="5">LOG(P6,10)</f>
+        <v>0.63346845557958642</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -1223,43 +1337,43 @@
       <c r="D7" s="1">
         <v>2.1</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
         <v>2</v>
       </c>
       <c r="I7" s="6">
         <v>16.7</v>
       </c>
       <c r="J7" s="3">
-        <f>F7*E7*G7/H7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7" s="7">
-        <f>I7/J7</f>
+        <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
       <c r="L7">
-        <f>G7*F7*E7</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>C7</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" ref="P7:P8" si="1">(K7)</f>
+        <f t="shared" ref="P7:P8" si="6">(K7)</f>
         <v>16.7</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ref="Q7:Q8" si="2">LOG(P7)</f>
+        <f t="shared" si="5"/>
         <v>1.2227164711475833</v>
       </c>
     </row>
@@ -1268,49 +1382,199 @@
         <v>42682</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1">
         <v>2.1</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
         <v>2</v>
       </c>
       <c r="I8" s="6">
         <v>60.3</v>
       </c>
       <c r="J8" s="3">
-        <f>F8*E8*G8/H8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" s="7">
-        <f>I8/J8</f>
-        <v>60.3</v>
-      </c>
-      <c r="L8">
-        <f>G8*F8*E8</f>
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <f>C8</f>
-        <v>100</v>
-      </c>
-      <c r="P8" s="8">
         <f t="shared" si="1"/>
         <v>60.3</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="6"/>
+        <v>60.3</v>
+      </c>
       <c r="Q8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.7803173121401512</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="14">
+        <v>42684</v>
+      </c>
+      <c r="C9" s="1">
+        <v>900</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9" si="7">F9*E9*G9/H9</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ref="K9" si="8">I9/J9</f>
+        <v>3.1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9" si="9">G9*F9*E9</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" ref="P9" si="10">(K9)</f>
+        <v>3.1</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="5"/>
+        <v>0.49136169383427264</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="14">
+        <v>42684</v>
+      </c>
+      <c r="C10" s="1">
+        <v>300</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10" si="11">F10*E10*G10/H10</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" ref="K10" si="12">I10/J10</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10" si="13">G10*F10*E10</f>
+        <v>2</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" ref="P10" si="14">(K10)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="5"/>
+        <v>0.98677173426624465</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="14">
+        <v>42684</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>53</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" ref="J11" si="15">F11*E11*G11/H11</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" ref="K11" si="16">I11/J11</f>
+        <v>53</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11" si="17">G11*F11*E11</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" ref="P11" si="18">(K11)</f>
+        <v>53</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="5"/>
+        <v>1.7242758696007889</v>
       </c>
     </row>
   </sheetData>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="5720" windowWidth="35960" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="5060" yWindow="1720" windowWidth="35960" windowHeight="17360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,8 +151,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -231,7 +233,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -249,6 +251,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -266,6 +269,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,11 +404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112276072"/>
-        <c:axId val="2112283112"/>
+        <c:axId val="-2144810376"/>
+        <c:axId val="2111532088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112276072"/>
+        <c:axId val="-2144810376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,12 +442,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112283112"/>
+        <c:crossAx val="2111532088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112283112"/>
+        <c:axId val="2111532088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +477,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112276072"/>
+        <c:crossAx val="-2144810376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -620,11 +624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112345016"/>
-        <c:axId val="2112348008"/>
+        <c:axId val="-2144676888"/>
+        <c:axId val="-2144673896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2112345016"/>
+        <c:axId val="-2144676888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,12 +638,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112348008"/>
+        <c:crossAx val="-2144673896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112348008"/>
+        <c:axId val="-2144673896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112345016"/>
+        <c:crossAx val="-2144676888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -672,15 +676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>289035</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7883</xdr:rowOff>
+      <xdr:colOff>376621</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>674414</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53428</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1054,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1265,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O11" si="3">C5</f>
+        <f t="shared" ref="O5:O12" si="3">C5</f>
         <v>900</v>
       </c>
       <c r="P5" s="8">
@@ -1575,6 +1579,48 @@
       <c r="Q11" s="13">
         <f t="shared" si="5"/>
         <v>1.7242758696007889</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="14">
+        <v>42684</v>
+      </c>
+      <c r="C12" s="1">
+        <v>900</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6">
+        <v>329</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12" si="19">F12*E12*G12/H12</f>
+        <v>48</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" ref="K12" si="20">I12/J12</f>
+        <v>6.854166666666667</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12" si="21">G12*F12*E12</f>
+        <v>480</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1720" windowWidth="35960" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="2780" yWindow="3020" windowWidth="24140" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,8 +151,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,7 +241,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -252,6 +260,10 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -270,6 +282,10 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,11 +420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144810376"/>
-        <c:axId val="2111532088"/>
+        <c:axId val="2121396808"/>
+        <c:axId val="2073324040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144810376"/>
+        <c:axId val="2121396808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,12 +458,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111532088"/>
+        <c:crossAx val="2073324040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111532088"/>
+        <c:axId val="2073324040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +493,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144810376"/>
+        <c:crossAx val="2121396808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -624,11 +640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144676888"/>
-        <c:axId val="-2144673896"/>
+        <c:axId val="2121330808"/>
+        <c:axId val="2121327816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144676888"/>
+        <c:axId val="2121330808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,12 +654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144673896"/>
+        <c:crossAx val="2121327816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144673896"/>
+        <c:axId val="2121327816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144676888"/>
+        <c:crossAx val="2121330808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1058,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q12"/>
+  <dimension ref="B1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1269,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O12" si="3">C5</f>
+        <f t="shared" ref="O5:O13" si="3">C5</f>
         <v>900</v>
       </c>
       <c r="P5" s="8">
@@ -1621,6 +1637,124 @@
       <c r="O12" s="11">
         <f t="shared" si="3"/>
         <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="5">
+        <v>42685</v>
+      </c>
+      <c r="C13" s="1">
+        <v>900</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" ref="J13" si="22">F13*E13*G13/H13</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" ref="K13" si="23">I13/J13</f>
+        <v>2.4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="24">G13*F13*E13</f>
+        <v>4</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="5">
+        <v>42685</v>
+      </c>
+      <c r="C14" s="1">
+        <v>900</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" ref="J14" si="25">F14*E14*G14/H14</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" ref="K14" si="26">I14/J14</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14" si="27">G14*F14*E14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="5">
+        <v>42685</v>
+      </c>
+      <c r="C15" s="1">
+        <v>900</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15" si="28">F15*E15*G15/H15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" ref="K15" si="29">I15/J15</f>
+        <v>3.4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15" si="30">G15*F15*E15</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +141,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -151,7 +157,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,8 +203,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,8 +248,11 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -264,6 +275,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -286,6 +298,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q15"/>
+  <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1640,7 +1653,7 @@
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="5">
+      <c r="B13" s="15">
         <v>42685</v>
       </c>
       <c r="C13" s="1">
@@ -1682,7 +1695,7 @@
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="5">
+      <c r="B14" s="15">
         <v>42685</v>
       </c>
       <c r="C14" s="1">
@@ -1720,7 +1733,7 @@
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="5">
+      <c r="B15" s="15">
         <v>42685</v>
       </c>
       <c r="C15" s="1">
@@ -1745,16 +1758,52 @@
         <v>3.4</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15" si="28">F15*E15*G15/H15</f>
+        <f t="shared" ref="J15:J16" si="28">F15*E15*G15/H15</f>
         <v>1</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" ref="K15" si="29">I15/J15</f>
+        <f t="shared" ref="K15:K16" si="29">I15/J15</f>
         <v>3.4</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15" si="30">G15*F15*E15</f>
+        <f t="shared" ref="L15:L16" si="30">G15*F15*E15</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="15">
+        <v>42685</v>
+      </c>
+      <c r="C16" s="1">
+        <v>900</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>36</v>
+      </c>
+      <c r="G16" s="10">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3">
+        <f t="shared" si="28"/>
+        <v>72</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="30"/>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3020" windowWidth="24140" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="1800" yWindow="7860" windowWidth="24140" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,8 +157,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -252,7 +254,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -276,6 +278,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -299,6 +302,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,11 +437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121396808"/>
-        <c:axId val="2073324040"/>
+        <c:axId val="-2124918152"/>
+        <c:axId val="-2125170248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121396808"/>
+        <c:axId val="-2124918152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,12 +475,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073324040"/>
+        <c:crossAx val="-2125170248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073324040"/>
+        <c:axId val="-2125170248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +510,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121396808"/>
+        <c:crossAx val="-2124918152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -653,11 +657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121330808"/>
-        <c:axId val="2121327816"/>
+        <c:axId val="2070533624"/>
+        <c:axId val="-2136853128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121330808"/>
+        <c:axId val="2070533624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,12 +671,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121327816"/>
+        <c:crossAx val="-2136853128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121327816"/>
+        <c:axId val="-2136853128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121330808"/>
+        <c:crossAx val="2070533624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1087,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1792,17 +1796,57 @@
       <c r="H16" s="10">
         <v>10</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <v>488</v>
+      </c>
       <c r="J16" s="3">
         <f t="shared" si="28"/>
         <v>72</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>6.7777777777777777</v>
       </c>
       <c r="L16">
         <f t="shared" si="30"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="15">
+        <v>42687</v>
+      </c>
+      <c r="C17" s="1">
+        <v>900</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>36</v>
+      </c>
+      <c r="G17" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10">
+        <v>10</v>
+      </c>
+      <c r="I17" s="6">
+        <v>233</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" ref="J17" si="31">F17*E17*G17/H17</f>
+        <v>72</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" ref="K17" si="32">I17/J17</f>
+        <v>3.2361111111111112</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="33">G17*F17*E17</f>
         <v>720</v>
       </c>
     </row>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="7860" windowWidth="24140" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,8 +157,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -254,7 +258,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -279,6 +283,8 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -303,6 +309,8 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,11 +445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124918152"/>
-        <c:axId val="-2125170248"/>
+        <c:axId val="-2139977400"/>
+        <c:axId val="-2139984440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124918152"/>
+        <c:axId val="-2139977400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,12 +483,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125170248"/>
+        <c:crossAx val="-2139984440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125170248"/>
+        <c:axId val="-2139984440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +518,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124918152"/>
+        <c:crossAx val="-2139977400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -657,11 +665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070533624"/>
-        <c:axId val="-2136853128"/>
+        <c:axId val="-2140048152"/>
+        <c:axId val="-2140051144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070533624"/>
+        <c:axId val="-2140048152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,12 +679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136853128"/>
+        <c:crossAx val="-2140051144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136853128"/>
+        <c:axId val="-2140051144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070533624"/>
+        <c:crossAx val="-2140048152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -709,15 +717,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376621</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>77952</xdr:rowOff>
+      <xdr:colOff>385380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123497</xdr:rowOff>
+      <xdr:colOff>770759</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1091,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q17"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1109,7 +1117,7 @@
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="2" customFormat="1" ht="30">
@@ -1838,17 +1846,85 @@
         <v>233</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17" si="31">F17*E17*G17/H17</f>
+        <f t="shared" ref="J17:J18" si="31">F17*E17*G17/H17</f>
         <v>72</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" ref="K17" si="32">I17/J17</f>
+        <f t="shared" ref="K17:K18" si="32">I17/J17</f>
         <v>3.2361111111111112</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17" si="33">G17*F17*E17</f>
+        <f t="shared" ref="L17:L18" si="33">G17*F17*E17</f>
         <v>720</v>
       </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="15">
+        <v>42716</v>
+      </c>
+      <c r="C18" s="1">
+        <v>300</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>72</v>
+      </c>
+      <c r="G18" s="10">
+        <v>100</v>
+      </c>
+      <c r="H18" s="10">
+        <v>50</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6318</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="31"/>
+        <v>288</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="32"/>
+        <v>21.9375</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="33"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="15"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="15"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="15"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="2880" yWindow="0" windowWidth="48000" windowHeight="27440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,143 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Champredon</author>
+  </authors>
+  <commentList>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Champredon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+contact rate = 2.55
+light output =  False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Champredon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+contact rate = 2.55
+light output =  False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Champredon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+contact rate = 2.55
+light output =  False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Champredon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+contact rate = 2.55
+light output =  False</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Champredon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+contact rate = 2.55
+light output =  False</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Num intervention</t>
   </si>
@@ -56,12 +191,33 @@
   <si>
     <t>time / 1 MC</t>
   </si>
+  <si>
+    <t>Total simulations</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>light output = TRUE</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>log(T)</t>
+  </si>
+  <si>
+    <t>light output = TRUE ; peak memory = 1.9GB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +277,34 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -148,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,8 +340,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,8 +424,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,28 +455,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -251,14 +471,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -285,6 +549,17 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -311,6 +586,17 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,11 +731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2139977400"/>
-        <c:axId val="-2139984440"/>
+        <c:axId val="2147397800"/>
+        <c:axId val="-2135653400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2139977400"/>
+        <c:axId val="2147397800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,12 +769,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139984440"/>
+        <c:crossAx val="-2135653400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2139984440"/>
+        <c:axId val="-2135653400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +804,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139977400"/>
+        <c:crossAx val="2147397800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -665,11 +951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140048152"/>
-        <c:axId val="-2140051144"/>
+        <c:axId val="-2147210776"/>
+        <c:axId val="-2147053336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140048152"/>
+        <c:axId val="-2147210776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,12 +965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140051144"/>
+        <c:crossAx val="-2147053336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140051144"/>
+        <c:axId val="-2147053336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140048152"/>
+        <c:crossAx val="-2147210776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -712,20 +998,305 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$24:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$24:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2140075544"/>
+        <c:axId val="-2140074920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2140075544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140074920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2140074920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140075544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(T)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$24:$S$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$24:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.361727836017593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.653212513775344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.342422680822206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2140364728"/>
+        <c:axId val="-2140575304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2140364728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140575304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2140575304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140364728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>385380</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95469</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>814553</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>770759</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>141014</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>595587</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -752,10 +1323,10 @@
       <xdr:rowOff>16641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>402896</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>62186</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>770759</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>35035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -769,6 +1340,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586827</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350345</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>805793</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1098,11 +1729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1117,203 +1748,214 @@
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="2" customFormat="1" ht="30">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>42677</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>900</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>2.1</v>
       </c>
-      <c r="E2" s="10">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
         <v>8</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>10</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>10</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="12">
         <v>88.8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="13">
         <f t="shared" ref="J2:J8" si="0">F2*E2*G2/H2</f>
         <v>16</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="21">
         <f t="shared" ref="K2:K8" si="1">I2/J2</f>
         <v>5.55</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="10">
         <f t="shared" ref="L2:L8" si="2">G2*F2*E2</f>
         <v>160</v>
       </c>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="5">
+      <c r="B3" s="14">
         <v>42681</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="15">
         <v>900</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="15">
         <v>2.1</v>
       </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16">
         <v>12</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="16">
         <v>20</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="16">
         <v>20</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="17">
         <v>262.10000000000002</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="22">
         <f t="shared" si="1"/>
         <v>10.920833333333334</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="15">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="5">
+      <c r="B4" s="14">
         <v>42682</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="15">
         <v>900</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="15">
         <v>2.1</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
         <v>20</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="16">
         <v>20</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="22">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="M4" s="24"/>
+      <c r="P4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="5">
+      <c r="B5" s="14">
         <v>42682</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="15">
         <v>900</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="15">
         <v>2.1</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="17">
         <v>3.4</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="22">
         <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="M5" s="24"/>
       <c r="O5">
         <f t="shared" ref="O5:O13" si="3">C5</f>
         <v>900</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="4">
         <f>(K5)</f>
         <v>3.4</v>
       </c>
@@ -1323,47 +1965,48 @@
       </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="5">
+      <c r="B6" s="14">
         <v>42682</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="15">
         <v>600</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="15">
         <v>2.1</v>
       </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
         <v>4.3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="22">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="M6" s="24"/>
       <c r="O6">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="4">
         <f t="shared" ref="P6" si="4">(K6)</f>
         <v>4.3</v>
       </c>
@@ -1373,47 +2016,48 @@
       </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="5">
+      <c r="B7" s="14">
         <v>42682</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="15">
         <v>300</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="15">
         <v>2.1</v>
       </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="17">
         <v>16.7</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="22">
         <f t="shared" si="1"/>
         <v>16.7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="M7" s="24"/>
       <c r="O7">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="4">
         <f t="shared" ref="P7:P8" si="6">(K7)</f>
         <v>16.7</v>
       </c>
@@ -1423,47 +2067,48 @@
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="5">
+      <c r="B8" s="14">
         <v>42682</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="15">
         <v>150</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="15">
         <v>2.1</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="17">
         <v>60.3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="22">
         <f t="shared" si="1"/>
         <v>60.3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="M8" s="24"/>
       <c r="O8">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="4">
         <f t="shared" si="6"/>
         <v>60.3</v>
       </c>
@@ -1473,463 +2118,745 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="14">
+      <c r="B9" s="19">
         <v>42684</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="15">
         <v>900</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="15">
         <v>2.1</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2</v>
+      </c>
+      <c r="I9" s="17">
         <v>6.2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="18">
         <f t="shared" ref="J9" si="7">F9*E9*G9/H9</f>
         <v>2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="22">
         <f t="shared" ref="K9" si="8">I9/J9</f>
         <v>3.1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="15">
         <f t="shared" ref="L9" si="9">G9*F9*E9</f>
         <v>4</v>
       </c>
-      <c r="O9" s="11">
+      <c r="M9" s="24"/>
+      <c r="O9" s="6">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="7">
         <f t="shared" ref="P9" si="10">(K9)</f>
         <v>3.1</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="8">
         <f t="shared" si="5"/>
         <v>0.49136169383427264</v>
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="14">
+      <c r="B10" s="19">
         <v>42684</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="15">
         <v>300</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="15">
         <v>2.1</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="18">
         <f t="shared" ref="J10" si="11">F10*E10*G10/H10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="22">
         <f t="shared" ref="K10" si="12">I10/J10</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <f t="shared" ref="L10" si="13">G10*F10*E10</f>
         <v>2</v>
       </c>
-      <c r="O10" s="11">
+      <c r="M10" s="24"/>
+      <c r="O10" s="6">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="7">
         <f t="shared" ref="P10" si="14">(K10)</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="8">
         <f t="shared" si="5"/>
         <v>0.98677173426624465</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="14">
+      <c r="B11" s="19">
         <v>42684</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="15">
         <v>150</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="15">
         <v>2.1</v>
       </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17">
         <v>53</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="18">
         <f t="shared" ref="J11" si="15">F11*E11*G11/H11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="22">
         <f t="shared" ref="K11" si="16">I11/J11</f>
         <v>53</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="15">
         <f t="shared" ref="L11" si="17">G11*F11*E11</f>
         <v>2</v>
       </c>
-      <c r="O11" s="11">
+      <c r="M11" s="24"/>
+      <c r="O11" s="6">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="7">
         <f t="shared" ref="P11" si="18">(K11)</f>
         <v>53</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="8">
         <f t="shared" si="5"/>
         <v>1.7242758696007889</v>
       </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="14">
+      <c r="B12" s="19">
         <v>42684</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="15">
         <v>900</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="15">
         <v>2.1</v>
       </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
         <v>24</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="16">
         <v>10</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="16">
         <v>10</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="17">
         <v>329</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="18">
         <f t="shared" ref="J12" si="19">F12*E12*G12/H12</f>
         <v>48</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="22">
         <f t="shared" ref="K12" si="20">I12/J12</f>
         <v>6.854166666666667</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="15">
         <f t="shared" ref="L12" si="21">G12*F12*E12</f>
         <v>480</v>
       </c>
-      <c r="O12" s="11">
+      <c r="M12" s="24"/>
+      <c r="O12" s="6">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="15">
+      <c r="B13" s="20">
         <v>42685</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="15">
         <v>900</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="15">
         <v>2.1</v>
       </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17">
         <v>4.8</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="18">
         <f t="shared" ref="J13" si="22">F13*E13*G13/H13</f>
         <v>2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="22">
         <f t="shared" ref="K13" si="23">I13/J13</f>
         <v>2.4</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="15">
         <f t="shared" ref="L13" si="24">G13*F13*E13</f>
         <v>4</v>
       </c>
-      <c r="O13" s="11">
+      <c r="M13" s="24"/>
+      <c r="O13" s="6">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="15">
+      <c r="B14" s="20">
         <v>42685</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="15">
         <v>900</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="15">
         <v>2.1</v>
       </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>2</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="E14" s="16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
+      <c r="H14" s="16">
+        <v>2</v>
+      </c>
+      <c r="I14" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="18">
         <f t="shared" ref="J14" si="25">F14*E14*G14/H14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="22">
         <f t="shared" ref="K14" si="26">I14/J14</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="15">
         <f t="shared" ref="L14" si="27">G14*F14*E14</f>
         <v>4</v>
       </c>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="15">
+      <c r="B15" s="20">
         <v>42685</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="15">
         <v>900</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="15">
         <v>2.1</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
         <v>20</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="16">
         <v>20</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="17">
         <v>3.4</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="18">
         <f t="shared" ref="J15:J16" si="28">F15*E15*G15/H15</f>
         <v>1</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="22">
         <f t="shared" ref="K15:K16" si="29">I15/J15</f>
         <v>3.4</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="15">
         <f t="shared" ref="L15:L16" si="30">G15*F15*E15</f>
         <v>20</v>
       </c>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="15">
+      <c r="B16" s="20">
         <v>42685</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="15">
         <v>900</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="15">
         <v>2.1</v>
       </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E16" s="16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16">
         <v>36</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="16">
         <v>10</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="16">
         <v>10</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="17">
         <v>488</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="18">
         <f t="shared" si="28"/>
         <v>72</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="22">
         <f t="shared" si="29"/>
         <v>6.7777777777777777</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="15">
         <f t="shared" si="30"/>
         <v>720</v>
       </c>
+      <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="15">
+    <row r="17" spans="2:22">
+      <c r="B17" s="20">
         <v>42687</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="15">
         <v>900</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="15">
         <v>2.1</v>
       </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="E17" s="16">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16">
         <v>36</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="16">
         <v>10</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="16">
         <v>10</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="17">
         <v>233</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17:J18" si="31">F17*E17*G17/H17</f>
+      <c r="J17" s="18">
+        <f t="shared" ref="J17:J19" si="31">F17*E17*G17/H17</f>
         <v>72</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" ref="K17:K18" si="32">I17/J17</f>
+      <c r="K17" s="22">
+        <f t="shared" ref="K17:K19" si="32">I17/J17</f>
         <v>3.2361111111111112</v>
       </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L18" si="33">G17*F17*E17</f>
+      <c r="L17" s="15">
+        <f t="shared" ref="L17:L19" si="33">G17*F17*E17</f>
         <v>720</v>
       </c>
+      <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="15">
+    <row r="18" spans="2:22">
+      <c r="B18" s="20">
         <v>42716</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="15">
         <v>300</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="15">
         <v>2.1</v>
       </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E18" s="16">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16">
         <v>72</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="16">
         <v>100</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="16">
         <v>50</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="17">
         <v>6318</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="18">
         <f t="shared" si="31"/>
         <v>288</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="22">
         <f t="shared" si="32"/>
         <v>21.9375</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="15">
         <f t="shared" si="33"/>
         <v>14400</v>
       </c>
+      <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="15"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="7"/>
+    <row r="19" spans="2:22">
+      <c r="B19" s="20">
+        <v>42725</v>
+      </c>
+      <c r="C19" s="15">
+        <v>600</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
+      <c r="H19" s="16">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="32"/>
+        <v>1.4</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="15"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="7"/>
+    <row r="20" spans="2:22">
+      <c r="B20" s="20">
+        <v>42725</v>
+      </c>
+      <c r="C20" s="15">
+        <v>300</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17">
+        <v>4.8</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" ref="J20" si="34">F20*E20*G20/H20</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" ref="K20" si="35">I20/J20</f>
+        <v>4.8</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" ref="L20" si="36">G20*F20*E20</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="15"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="7"/>
+    <row r="21" spans="2:22">
+      <c r="B21" s="20">
+        <v>42725</v>
+      </c>
+      <c r="C21" s="15">
+        <v>300</v>
+      </c>
+      <c r="D21" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <v>2</v>
+      </c>
+      <c r="I21" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" ref="J21" si="37">F21*E21*G21/H21</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" ref="K21" si="38">I21/J21</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" ref="L21" si="39">G21*F21*E21</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="20">
+        <v>42725</v>
+      </c>
+      <c r="C22" s="15">
+        <v>150</v>
+      </c>
+      <c r="D22" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2</v>
+      </c>
+      <c r="I22" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" ref="J22" si="40">F22*E22*G22/H22</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" ref="K22" si="41">I22/J22</f>
+        <v>4.5</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" ref="L22" si="42">G22*F22*E22</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="20">
+        <v>42725</v>
+      </c>
+      <c r="C23" s="15">
+        <v>75</v>
+      </c>
+      <c r="D23" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+      <c r="H23" s="16">
+        <v>2</v>
+      </c>
+      <c r="I23" s="17">
+        <v>22</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" ref="J23" si="43">F23*E23*G23/H23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" ref="K23" si="44">I23/J23</f>
+        <v>22</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" ref="L23" si="45">G23*F23*E23</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="25"/>
+      <c r="Q24" s="1">
+        <v>600</v>
+      </c>
+      <c r="R24" s="28">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f>Q24</f>
+        <v>600</v>
+      </c>
+      <c r="T24">
+        <f>LOG(R24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="Q25" s="15">
+        <v>300</v>
+      </c>
+      <c r="R25" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:S26" si="46">Q25</f>
+        <v>300</v>
+      </c>
+      <c r="T25">
+        <f>LOG(R25)</f>
+        <v>0.36172783601759284</v>
+      </c>
+      <c r="V25">
+        <f>10^1.3</f>
+        <v>19.952623149688804</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="Q26" s="15">
+        <v>150</v>
+      </c>
+      <c r="R26" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="46"/>
+        <v>150</v>
+      </c>
+      <c r="T26">
+        <f>LOG(R26)</f>
+        <v>0.65321251377534373</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="Q27" s="1">
+        <v>75</v>
+      </c>
+      <c r="R27" s="28">
+        <v>22</v>
+      </c>
+      <c r="S27">
+        <v>75</v>
+      </c>
+      <c r="T27">
+        <f>LOG(R27)</f>
+        <v>1.3424226808222062</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="Q28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="0" windowWidth="48000" windowHeight="27440" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="620" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sherbrooke" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -154,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Num intervention</t>
   </si>
@@ -209,15 +210,30 @@
   <si>
     <t>light output = TRUE ; peak memory = 1.9GB</t>
   </si>
+  <si>
+    <t>Wall time (minute)</t>
+  </si>
+  <si>
+    <t>Size output files (Gb)</t>
+  </si>
+  <si>
+    <t>Memory (Gb)</t>
+  </si>
+  <si>
+    <t>Earliest intervention</t>
+  </si>
+  <si>
+    <t>wall time / CPU (minute)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +321,23 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -370,7 +403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,8 +479,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,9 +569,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -560,6 +633,14 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -597,6 +678,14 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -731,11 +820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2147397800"/>
-        <c:axId val="-2135653400"/>
+        <c:axId val="2114389816"/>
+        <c:axId val="2114395032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2147397800"/>
+        <c:axId val="2114389816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,12 +858,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135653400"/>
+        <c:crossAx val="2114395032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2135653400"/>
+        <c:axId val="2114395032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +893,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147397800"/>
+        <c:crossAx val="2114389816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -951,11 +1040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147210776"/>
-        <c:axId val="-2147053336"/>
+        <c:axId val="2114423032"/>
+        <c:axId val="2114426024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147210776"/>
+        <c:axId val="2114423032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,12 +1054,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147053336"/>
+        <c:crossAx val="2114426024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147053336"/>
+        <c:axId val="2114426024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147210776"/>
+        <c:crossAx val="2114423032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1088,11 +1177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140075544"/>
-        <c:axId val="-2140074920"/>
+        <c:axId val="2114448232"/>
+        <c:axId val="2114451320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140075544"/>
+        <c:axId val="2114448232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,12 +1191,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140074920"/>
+        <c:crossAx val="2114451320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140074920"/>
+        <c:axId val="2114451320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140075544"/>
+        <c:crossAx val="2114448232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1230,11 +1319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140364728"/>
-        <c:axId val="-2140575304"/>
+        <c:axId val="2114477672"/>
+        <c:axId val="2114480632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140364728"/>
+        <c:axId val="2114477672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,12 +1333,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140575304"/>
+        <c:crossAx val="2114480632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140575304"/>
+        <c:axId val="2114480632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1261,7 +1350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140364728"/>
+        <c:crossAx val="2114477672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1732,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2863,4 +2952,387 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="15.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9">
+        <v>42745</v>
+      </c>
+      <c r="B2" s="10">
+        <v>900</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30">
+        <v>-2</v>
+      </c>
+      <c r="E2" s="29">
+        <v>24</v>
+      </c>
+      <c r="F2" s="29">
+        <v>24</v>
+      </c>
+      <c r="G2" s="31">
+        <v>3</v>
+      </c>
+      <c r="H2" s="32">
+        <v>3</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="36">
+        <f>G2*F2/E2</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9">
+        <v>42745</v>
+      </c>
+      <c r="B3" s="15">
+        <v>300</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E3" s="30">
+        <v>48</v>
+      </c>
+      <c r="F3" s="30">
+        <v>24</v>
+      </c>
+      <c r="G3" s="33">
+        <v>21</v>
+      </c>
+      <c r="H3" s="35">
+        <v>10</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="36">
+        <f>G3*F3/E3</f>
+        <v>10.5</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -403,8 +403,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -595,7 +597,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -641,6 +643,7 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +689,7 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,11 +824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114389816"/>
-        <c:axId val="2114395032"/>
+        <c:axId val="-2116728296"/>
+        <c:axId val="-2140172040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114389816"/>
+        <c:axId val="-2116728296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,19 +855,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114395032"/>
+        <c:crossAx val="-2140172040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114395032"/>
+        <c:axId val="-2140172040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,14 +889,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114389816"/>
+        <c:crossAx val="-2116728296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1040,11 +1042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114423032"/>
-        <c:axId val="2114426024"/>
+        <c:axId val="-2140179208"/>
+        <c:axId val="-2114824648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114423032"/>
+        <c:axId val="-2140179208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,12 +1056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114426024"/>
+        <c:crossAx val="-2114824648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114426024"/>
+        <c:axId val="-2114824648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114423032"/>
+        <c:crossAx val="-2140179208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1102,7 +1104,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1177,11 +1178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114448232"/>
-        <c:axId val="2114451320"/>
+        <c:axId val="-2114802872"/>
+        <c:axId val="-2114799784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114448232"/>
+        <c:axId val="-2114802872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,12 +1192,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114451320"/>
+        <c:crossAx val="-2114799784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114451320"/>
+        <c:axId val="-2114799784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,14 +1208,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114448232"/>
+        <c:crossAx val="-2114802872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1244,7 +1244,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1319,11 +1318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114477672"/>
-        <c:axId val="2114480632"/>
+        <c:axId val="-2140246680"/>
+        <c:axId val="-2113953944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114477672"/>
+        <c:axId val="-2140246680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,12 +1332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114480632"/>
+        <c:crossAx val="-2113953944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114480632"/>
+        <c:axId val="-2113953944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1350,14 +1349,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114477672"/>
+        <c:crossAx val="-2140246680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2959,7 +2957,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3080,16 +3078,35 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="35"/>
+      <c r="A4" s="9">
+        <v>42746</v>
+      </c>
+      <c r="B4" s="15">
+        <v>500</v>
+      </c>
+      <c r="C4" s="30">
+        <v>2</v>
+      </c>
+      <c r="D4" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E4" s="30">
+        <v>24</v>
+      </c>
+      <c r="F4" s="30">
+        <v>24</v>
+      </c>
+      <c r="G4" s="33">
+        <v>9</v>
+      </c>
+      <c r="H4" s="35">
+        <v>10</v>
+      </c>
       <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="36">
+        <f>G4*F4/E4</f>
+        <v>9</v>
+      </c>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11">

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="620" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9960" yWindow="1520" windowWidth="35400" windowHeight="13940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Num intervention</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>wall time / CPU (minute)</t>
+  </si>
+  <si>
+    <t>dolog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -339,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,8 +509,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,8 +616,30 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -644,6 +686,10 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -690,6 +736,10 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1370,6 +1420,156 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.477121254719662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.021189299069938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.954242509439325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.929418925714293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.698970004336019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2115959736"/>
+        <c:axId val="-2123498760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2115959736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123498760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2123498760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115959736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1487,6 +1687,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112347</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532424</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33216</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2954,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2974,7 +3209,7 @@
     <col min="11" max="11" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:21" ht="30">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3008,8 +3243,14 @@
       <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="9">
         <v>42745</v>
       </c>
@@ -3038,12 +3279,12 @@
         <v>0.4</v>
       </c>
       <c r="J2" s="36">
-        <f>G2*F2/E2</f>
-        <v>3</v>
+        <f>IF($N$1,LOG(G2*F2/E2),G2*F2/E2)</f>
+        <v>0.47712125471966244</v>
       </c>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:21">
       <c r="A3" s="9">
         <v>42745</v>
       </c>
@@ -3072,12 +3313,12 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="36">
-        <f>G3*F3/E3</f>
-        <v>10.5</v>
+        <f t="shared" ref="J3:J6" si="0">IF($N$1,LOG(G3*F3/E3),G3*F3/E3)</f>
+        <v>1.0211892990699381</v>
       </c>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:21">
       <c r="A4" s="9">
         <v>42746</v>
       </c>
@@ -3102,44 +3343,106 @@
       <c r="H4" s="35">
         <v>10</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="34">
+        <v>0.2</v>
+      </c>
       <c r="J4" s="36">
-        <f>G4*F4/E4</f>
-        <v>9</v>
-      </c>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="33"/>
+        <f t="shared" si="0"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="25"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="9">
+        <v>42746</v>
+      </c>
+      <c r="B5" s="15">
+        <v>500</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E5" s="30">
+        <v>48</v>
+      </c>
+      <c r="F5" s="30">
+        <v>24</v>
+      </c>
+      <c r="G5" s="33">
+        <v>17</v>
+      </c>
       <c r="H5" s="35"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="J5" s="36">
+        <f t="shared" si="0"/>
+        <v>0.92941892571429274</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="43"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="9">
+        <v>42746</v>
+      </c>
+      <c r="B6" s="15">
+        <v>150</v>
+      </c>
+      <c r="C6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E6" s="30">
+        <v>24</v>
+      </c>
+      <c r="F6" s="30">
+        <v>24</v>
+      </c>
+      <c r="G6" s="33">
+        <v>50</v>
+      </c>
+      <c r="H6" s="35">
+        <v>18</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="36">
+        <f t="shared" si="0"/>
+        <v>1.6989700043360187</v>
+      </c>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:21">
       <c r="A7" s="9"/>
       <c r="B7" s="15"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="33"/>
@@ -3148,7 +3451,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:21">
       <c r="A8" s="9"/>
       <c r="B8" s="15"/>
       <c r="C8" s="30"/>
@@ -3161,7 +3464,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:21">
       <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="30"/>
@@ -3174,7 +3477,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:21">
       <c r="A10" s="9"/>
       <c r="B10" s="15"/>
       <c r="C10" s="30"/>
@@ -3187,7 +3490,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:21">
       <c r="A11" s="9"/>
       <c r="B11" s="15"/>
       <c r="C11" s="30"/>
@@ -3200,7 +3503,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:21">
       <c r="A12" s="9"/>
       <c r="B12" s="15"/>
       <c r="C12" s="30"/>
@@ -3213,7 +3516,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:21">
       <c r="A13" s="9"/>
       <c r="B13" s="15"/>
       <c r="C13" s="30"/>
@@ -3226,7 +3529,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:21">
       <c r="A14" s="9"/>
       <c r="B14" s="15"/>
       <c r="C14" s="30"/>
@@ -3239,7 +3542,7 @@
       <c r="J14" s="34"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:21">
       <c r="A15" s="9"/>
       <c r="B15" s="15"/>
       <c r="C15" s="30"/>
@@ -3252,7 +3555,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:21">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="C16" s="30"/>
@@ -3343,9 +3646,35 @@
       <c r="J22" s="34"/>
       <c r="K22" s="25"/>
     </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1520" windowWidth="35400" windowHeight="13940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -874,11 +874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116728296"/>
-        <c:axId val="-2140172040"/>
+        <c:axId val="2038675304"/>
+        <c:axId val="2038680968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116728296"/>
+        <c:axId val="2038675304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,12 +911,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140172040"/>
+        <c:crossAx val="2038680968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140172040"/>
+        <c:axId val="2038680968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116728296"/>
+        <c:crossAx val="2038675304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1092,11 +1092,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140179208"/>
-        <c:axId val="-2114824648"/>
+        <c:axId val="2038538056"/>
+        <c:axId val="2038535064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140179208"/>
+        <c:axId val="2038538056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,12 +1106,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114824648"/>
+        <c:crossAx val="2038535064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114824648"/>
+        <c:axId val="2038535064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140179208"/>
+        <c:crossAx val="2038538056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1228,11 +1228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2114802872"/>
-        <c:axId val="-2114799784"/>
+        <c:axId val="2088537016"/>
+        <c:axId val="2088539592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2114802872"/>
+        <c:axId val="2088537016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,12 +1242,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114799784"/>
+        <c:crossAx val="2088539592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114799784"/>
+        <c:axId val="2088539592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114802872"/>
+        <c:crossAx val="2088537016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1368,11 +1368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140246680"/>
-        <c:axId val="-2113953944"/>
+        <c:axId val="2039895304"/>
+        <c:axId val="2039892248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140246680"/>
+        <c:axId val="2039895304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,12 +1382,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113953944"/>
+        <c:crossAx val="2039892248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2113953944"/>
+        <c:axId val="2039892248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1399,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140246680"/>
+        <c:crossAx val="2039895304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,6 +1434,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time / CPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1504,7 +1527,7 @@
                   <c:v>0.954242509439325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.929418925714293</c:v>
+                  <c:v>1.113943352306837</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.698970004336019</c:v>
@@ -1522,11 +1545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115959736"/>
-        <c:axId val="-2123498760"/>
+        <c:axId val="2088562632"/>
+        <c:axId val="2088553720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115959736"/>
+        <c:axId val="2088562632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,12 +1560,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123498760"/>
+        <c:crossAx val="2088553720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123498760"/>
+        <c:axId val="2088553720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115959736"/>
+        <c:crossAx val="2088562632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3191,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3206,7 +3229,7 @@
     <col min="7" max="7" width="13.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="5" customWidth="1"/>
     <col min="9" max="10" width="15.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30">
@@ -3382,13 +3405,17 @@
         <v>24</v>
       </c>
       <c r="G5" s="33">
-        <v>17</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="35">
+        <v>11</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0.8</v>
+      </c>
       <c r="J5" s="36">
         <f t="shared" si="0"/>
-        <v>0.92941892571429274</v>
+        <v>1.1139433523068367</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="37"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="34020" windowHeight="21380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Num intervention</t>
   </si>
@@ -226,20 +226,27 @@
     <t>wall time / CPU (minute)</t>
   </si>
   <si>
-    <t>dolog</t>
+    <t>wall time / CPU (LOG minute)</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>y-intercept</t>
+  </si>
+  <si>
+    <t>extrapolated time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,6 +351,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -372,7 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -517,8 +532,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,11 +652,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -690,6 +713,7 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -740,6 +764,7 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,11 +899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2038675304"/>
-        <c:axId val="2038680968"/>
+        <c:axId val="2121698184"/>
+        <c:axId val="2121705224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2038675304"/>
+        <c:axId val="2121698184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,12 +936,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2038680968"/>
+        <c:crossAx val="2121705224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2038680968"/>
+        <c:axId val="2121705224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2038675304"/>
+        <c:crossAx val="2121698184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1092,11 +1117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2038538056"/>
-        <c:axId val="2038535064"/>
+        <c:axId val="2121767432"/>
+        <c:axId val="2121770424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2038538056"/>
+        <c:axId val="2121767432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,12 +1131,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2038535064"/>
+        <c:crossAx val="2121770424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2038535064"/>
+        <c:axId val="2121770424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2038538056"/>
+        <c:crossAx val="2121767432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1228,11 +1253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088537016"/>
-        <c:axId val="2088539592"/>
+        <c:axId val="2121792952"/>
+        <c:axId val="2121796040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088537016"/>
+        <c:axId val="2121792952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,12 +1267,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088539592"/>
+        <c:crossAx val="2121796040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088539592"/>
+        <c:axId val="2121796040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088537016"/>
+        <c:crossAx val="2121792952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1368,11 +1393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039895304"/>
-        <c:axId val="2039892248"/>
+        <c:axId val="2121822600"/>
+        <c:axId val="2121825560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039895304"/>
+        <c:axId val="2121822600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,12 +1407,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2039892248"/>
+        <c:crossAx val="2121825560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039892248"/>
+        <c:axId val="2121825560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1399,7 +1424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2039895304"/>
+        <c:crossAx val="2121822600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1489,10 +1514,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sherbrooke!$B$2:$B$6</c:f>
+              <c:f>Sherbrooke!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>900.0</c:v>
                 </c:pt>
@@ -1507,30 +1532,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sherbrooke!$J$2:$J$6</c:f>
+              <c:f>Sherbrooke!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.477121254719662</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.021189299069938</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.954242509439325</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.113943352306837</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.698970004336019</c:v>
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,11 +1576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088562632"/>
-        <c:axId val="2088553720"/>
+        <c:axId val="2121992424"/>
+        <c:axId val="2121433912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088562632"/>
+        <c:axId val="2121992424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,12 +1591,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088553720"/>
+        <c:crossAx val="2121433912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088553720"/>
+        <c:axId val="2121433912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1607,198 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088562632"/>
+        <c:crossAx val="2121992424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Wall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time / CPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.477121254719662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.021189299069938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.954242509439325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.113943352306837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.698970004336019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.431363764158987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126589864"/>
+        <c:axId val="2126594744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2126589864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126594744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2126594744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126589864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1722,16 +1944,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>112347</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>532424</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33216</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>420077</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182304</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1745,6 +1967,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>420077</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63034</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3212,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3228,11 +3482,14 @@
     <col min="6" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="15.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+    <col min="9" max="11" width="15.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30">
+    <row r="1" spans="1:22" ht="30">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3264,16 +3521,13 @@
         <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="9">
         <v>42745</v>
       </c>
@@ -3302,12 +3556,22 @@
         <v>0.4</v>
       </c>
       <c r="J2" s="36">
-        <f>IF($N$1,LOG(G2*F2/E2),G2*F2/E2)</f>
+        <f>G2*F2/E2</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="36">
+        <f>LOG(J2)</f>
         <v>0.47712125471966244</v>
       </c>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="L2" s="23"/>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="9">
         <v>42745</v>
       </c>
@@ -3336,12 +3600,23 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="36">
-        <f t="shared" ref="J3:J6" si="0">IF($N$1,LOG(G3*F3/E3),G3*F3/E3)</f>
+        <f t="shared" ref="J3:J7" si="0">G3*F3/E3</f>
+        <v>10.5</v>
+      </c>
+      <c r="K3" s="36">
+        <f t="shared" ref="K3:K7" si="1">LOG(J3)</f>
         <v>1.0211892990699381</v>
       </c>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="L3" s="25"/>
+      <c r="O3" s="44">
+        <f t="array" ref="O3:P3">LINEST(K3:K7,B3:B7)</f>
+        <v>-1.582740487003726E-3</v>
+      </c>
+      <c r="P3" s="44">
+        <v>1.7662461465734505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="9">
         <v>42746</v>
       </c>
@@ -3371,21 +3646,29 @@
       </c>
       <c r="J4" s="36">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K4" s="36">
+        <f t="shared" si="1"/>
         <v>0.95424250943932487</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="30"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="25"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="O4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="9">
         <v>42746</v>
       </c>
@@ -3415,21 +3698,30 @@
       </c>
       <c r="J5" s="36">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K5" s="36">
+        <f t="shared" si="1"/>
         <v>1.1139433523068367</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="43"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="O5" s="45">
+        <v>75</v>
+      </c>
+      <c r="P5" s="46">
+        <f>10^(O3*O5+P3)</f>
+        <v>44.41611920892398</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="9">
         <v>42746</v>
       </c>
@@ -3459,26 +3751,53 @@
       </c>
       <c r="J6" s="36">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" si="1"/>
         <v>1.6989700043360187</v>
       </c>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="9"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="9">
+        <v>42747</v>
+      </c>
+      <c r="B7" s="15">
+        <v>200</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30">
+        <v>-10</v>
+      </c>
+      <c r="E7" s="30">
         <v>24</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="F7" s="30">
+        <v>24</v>
+      </c>
+      <c r="G7" s="33">
+        <v>27</v>
+      </c>
+      <c r="H7" s="35">
+        <v>15</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="36">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="9"/>
       <c r="B8" s="15"/>
       <c r="C8" s="30"/>
@@ -3488,10 +3807,11 @@
       <c r="G8" s="33"/>
       <c r="H8" s="35"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="30"/>
@@ -3501,10 +3821,11 @@
       <c r="G9" s="33"/>
       <c r="H9" s="35"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="9"/>
       <c r="B10" s="15"/>
       <c r="C10" s="30"/>
@@ -3514,10 +3835,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="35"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="9"/>
       <c r="B11" s="15"/>
       <c r="C11" s="30"/>
@@ -3527,10 +3849,11 @@
       <c r="G11" s="33"/>
       <c r="H11" s="35"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="9"/>
       <c r="B12" s="15"/>
       <c r="C12" s="30"/>
@@ -3540,10 +3863,11 @@
       <c r="G12" s="33"/>
       <c r="H12" s="35"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="9"/>
       <c r="B13" s="15"/>
       <c r="C13" s="30"/>
@@ -3553,10 +3877,11 @@
       <c r="G13" s="33"/>
       <c r="H13" s="35"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="9"/>
       <c r="B14" s="15"/>
       <c r="C14" s="30"/>
@@ -3566,10 +3891,11 @@
       <c r="G14" s="33"/>
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="9"/>
       <c r="B15" s="15"/>
       <c r="C15" s="30"/>
@@ -3579,10 +3905,11 @@
       <c r="G15" s="33"/>
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="C16" s="30"/>
@@ -3592,10 +3919,11 @@
       <c r="G16" s="33"/>
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="9"/>
       <c r="B17" s="15"/>
       <c r="C17" s="30"/>
@@ -3605,10 +3933,11 @@
       <c r="G17" s="33"/>
       <c r="H17" s="35"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="9"/>
       <c r="B18" s="15"/>
       <c r="C18" s="30"/>
@@ -3618,10 +3947,11 @@
       <c r="G18" s="33"/>
       <c r="H18" s="35"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="9"/>
       <c r="B19" s="15"/>
       <c r="C19" s="30"/>
@@ -3631,10 +3961,11 @@
       <c r="G19" s="33"/>
       <c r="H19" s="35"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="9"/>
       <c r="B20" s="15"/>
       <c r="C20" s="30"/>
@@ -3644,10 +3975,11 @@
       <c r="G20" s="33"/>
       <c r="H20" s="35"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="9"/>
       <c r="B21" s="15"/>
       <c r="C21" s="30"/>
@@ -3657,10 +3989,11 @@
       <c r="G21" s="33"/>
       <c r="H21" s="35"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="9"/>
       <c r="B22" s="15"/>
       <c r="C22" s="30"/>
@@ -3670,10 +4003,11 @@
       <c r="G22" s="33"/>
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="9"/>
       <c r="B23" s="15"/>
       <c r="C23" s="30"/>
@@ -3683,10 +4017,11 @@
       <c r="G23" s="33"/>
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="9"/>
       <c r="B24" s="15"/>
       <c r="C24" s="30"/>
@@ -3696,7 +4031,9 @@
       <c r="G24" s="33"/>
       <c r="H24" s="35"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="34020" windowHeight="21380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="47620" windowHeight="21380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -534,8 +534,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,8 +663,9 @@
     <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -714,6 +717,7 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -765,6 +769,7 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1536,6 +1541,9 @@
                 <c:pt idx="5">
                   <c:v>200.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1562,6 +1570,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,6 +1738,9 @@
                 <c:pt idx="5">
                   <c:v>200.0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1753,6 +1767,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.431363764158987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.954242509439325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3489,7 +3506,7 @@
     <col min="20" max="20" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30">
+    <row r="1" spans="1:23" ht="30">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="9">
         <v>42745</v>
       </c>
@@ -3570,8 +3587,16 @@
       <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="V2" s="43">
+        <f>B2</f>
+        <v>900</v>
+      </c>
+      <c r="W2" s="47">
+        <f>K2</f>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="9">
         <v>42745</v>
       </c>
@@ -3604,7 +3629,7 @@
         <v>10.5</v>
       </c>
       <c r="K3" s="36">
-        <f t="shared" ref="K3:K7" si="1">LOG(J3)</f>
+        <f t="shared" ref="K3:K8" si="1">LOG(J3)</f>
         <v>1.0211892990699381</v>
       </c>
       <c r="L3" s="25"/>
@@ -3615,8 +3640,16 @@
       <c r="P3" s="44">
         <v>1.7662461465734505</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="V3" s="43">
+        <f t="shared" ref="V3:V11" si="2">B3</f>
+        <v>300</v>
+      </c>
+      <c r="W3" s="47">
+        <f t="shared" ref="W3:W11" si="3">K3</f>
+        <v>1.0211892990699381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="9">
         <v>42746</v>
       </c>
@@ -3666,9 +3699,16 @@
       <c r="S4" s="35"/>
       <c r="T4" s="34"/>
       <c r="U4" s="36"/>
-      <c r="V4" s="25"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="V4" s="43">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="W4" s="47">
+        <f t="shared" si="3"/>
+        <v>0.95424250943932487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="9">
         <v>42746</v>
       </c>
@@ -3719,9 +3759,16 @@
       <c r="S5" s="40"/>
       <c r="T5" s="41"/>
       <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="V5" s="43">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="W5" s="47">
+        <f t="shared" si="3"/>
+        <v>1.1139433523068367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="9">
         <v>42746</v>
       </c>
@@ -3758,8 +3805,16 @@
         <v>1.6989700043360187</v>
       </c>
       <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="V6" s="43">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="W6" s="47">
+        <f t="shared" si="3"/>
+        <v>1.6989700043360187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="9">
         <v>42747</v>
       </c>
@@ -3796,22 +3851,58 @@
         <v>1.4313637641589874</v>
       </c>
       <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="9"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="33"/>
+      <c r="V7" s="43">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="W7" s="47">
+        <f t="shared" si="3"/>
+        <v>1.4313637641589874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="9">
+        <v>42747</v>
+      </c>
+      <c r="B8" s="15">
+        <v>100</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E8" s="30">
+        <v>48</v>
+      </c>
+      <c r="F8" s="30">
+        <v>24</v>
+      </c>
+      <c r="G8" s="33">
+        <v>180</v>
+      </c>
       <c r="H8" s="35"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="36">
+        <f t="shared" ref="J8" si="4">G8*F8/E8</f>
+        <v>90</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" si="1"/>
+        <v>1.954242509439325</v>
+      </c>
       <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="V8" s="43">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="W8" s="47">
+        <f t="shared" si="3"/>
+        <v>1.954242509439325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="30"/>
@@ -3824,8 +3915,16 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="V9" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="9"/>
       <c r="B10" s="15"/>
       <c r="C10" s="30"/>
@@ -3838,8 +3937,16 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="V10" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="9"/>
       <c r="B11" s="15"/>
       <c r="C11" s="30"/>
@@ -3852,8 +3959,16 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="V11" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="9"/>
       <c r="B12" s="15"/>
       <c r="C12" s="30"/>
@@ -3867,7 +3982,7 @@
       <c r="K12" s="36"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" s="9"/>
       <c r="B13" s="15"/>
       <c r="C13" s="30"/>
@@ -3881,7 +3996,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" s="9"/>
       <c r="B14" s="15"/>
       <c r="C14" s="30"/>
@@ -3895,7 +4010,7 @@
       <c r="K14" s="36"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" s="9"/>
       <c r="B15" s="15"/>
       <c r="C15" s="30"/>
@@ -3909,7 +4024,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="9"/>
       <c r="B16" s="15"/>
       <c r="C16" s="30"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="1700" yWindow="500" windowWidth="47620" windowHeight="21380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="local" sheetId="1" r:id="rId1"/>
     <sheet name="Sherbrooke" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Num intervention</t>
   </si>
@@ -237,6 +237,18 @@
   <si>
     <t>extrapolated time</t>
   </si>
+  <si>
+    <t>simulations that ended earliest</t>
+  </si>
+  <si>
+    <t>simulations that ended latest (?)</t>
+  </si>
+  <si>
+    <t>32 scenarios</t>
+  </si>
+  <si>
+    <t>256 scenarios</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +256,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -360,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +403,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -429,8 +447,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -536,8 +563,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,12 +696,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,7 +703,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -664,8 +713,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -718,6 +779,20 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -770,6 +845,20 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,7 +891,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$4</c:f>
+              <c:f>local!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -813,7 +902,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$8</c:f>
+              <c:f>local!$O$5:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -834,7 +923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$5:$P$8</c:f>
+              <c:f>local!$P$5:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -860,7 +949,7 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$9:$O$11</c:f>
+              <c:f>local!$O$9:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -878,7 +967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$11</c:f>
+              <c:f>local!$P$9:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -904,11 +993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121698184"/>
-        <c:axId val="2121705224"/>
+        <c:axId val="2036759224"/>
+        <c:axId val="2036766248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121698184"/>
+        <c:axId val="2036759224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,12 +1030,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121705224"/>
+        <c:crossAx val="2036766248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121705224"/>
+        <c:axId val="2036766248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1064,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121698184"/>
+        <c:crossAx val="2036759224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1017,7 +1106,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$4</c:f>
+              <c:f>local!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1028,7 +1117,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$O$8</c:f>
+              <c:f>local!$O$5:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1049,7 +1138,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$8</c:f>
+              <c:f>local!$Q$5:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1078,7 +1167,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$O$9:$O$11</c:f>
+              <c:f>local!$O$9:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1096,7 +1185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$11</c:f>
+              <c:f>local!$Q$9:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1122,11 +1211,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121767432"/>
-        <c:axId val="2121770424"/>
+        <c:axId val="2102867768"/>
+        <c:axId val="2102864776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121767432"/>
+        <c:axId val="2102867768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,12 +1225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121770424"/>
+        <c:crossAx val="2102864776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121770424"/>
+        <c:axId val="2102864776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121767432"/>
+        <c:crossAx val="2102867768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1197,7 +1286,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$23</c:f>
+              <c:f>local!$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1208,7 +1297,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$24:$Q$27</c:f>
+              <c:f>local!$Q$24:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1229,7 +1318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$24:$R$27</c:f>
+              <c:f>local!$R$24:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1258,11 +1347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121792952"/>
-        <c:axId val="2121796040"/>
+        <c:axId val="2102842168"/>
+        <c:axId val="2102839080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121792952"/>
+        <c:axId val="2102842168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,12 +1361,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121796040"/>
+        <c:crossAx val="2102839080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121796040"/>
+        <c:axId val="2102839080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121792952"/>
+        <c:crossAx val="2102842168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1337,7 +1426,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$23</c:f>
+              <c:f>local!$T$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1348,7 +1437,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$24:$S$27</c:f>
+              <c:f>local!$S$24:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1369,7 +1458,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$24:$T$27</c:f>
+              <c:f>local!$T$24:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1398,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121822600"/>
-        <c:axId val="2121825560"/>
+        <c:axId val="2102812440"/>
+        <c:axId val="2102809480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121822600"/>
+        <c:axId val="2102812440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,12 +1501,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121825560"/>
+        <c:crossAx val="2102809480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121825560"/>
+        <c:axId val="2102809480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1429,7 +1518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121822600"/>
+        <c:crossAx val="2102812440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1519,10 +1608,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sherbrooke!$B$2:$B$16</c:f>
+              <c:f>Sherbrooke!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>900.0</c:v>
                 </c:pt>
@@ -1542,17 +1631,29 @@
                   <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sherbrooke!$J$2:$J$16</c:f>
+              <c:f>Sherbrooke!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -1572,7 +1673,19 @@
                   <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.0</c:v>
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,27 +1700,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121992424"/>
-        <c:axId val="2121433912"/>
+        <c:axId val="2102757432"/>
+        <c:axId val="2102752616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121992424"/>
+        <c:axId val="2102757432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121433912"/>
+        <c:crossAx val="2102752616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121433912"/>
+        <c:axId val="2102752616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121992424"/>
+        <c:crossAx val="2102757432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,6 +1806,7 @@
               <a:solidFill>
                 <a:schemeClr val="bg1">
                   <a:lumMod val="50000"/>
+                  <a:alpha val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -1716,10 +1830,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sherbrooke!$B$2:$B$16</c:f>
+              <c:f>Sherbrooke!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>900.0</c:v>
                 </c:pt>
@@ -1739,17 +1853,29 @@
                   <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.0</c:v>
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sherbrooke!$K$2:$K$16</c:f>
+              <c:f>Sherbrooke!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.477121254719662</c:v>
                 </c:pt>
@@ -1769,7 +1895,79 @@
                   <c:v>1.431363764158987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.954242509439325</c:v>
+                  <c:v>2.255272505103306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.857332496431268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.740362689494244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.740362689494244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Regression on smallest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$AA$1:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$AC$1:$AC$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.189695687112453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.531272278469637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.530331673600147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.825818626352333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,27 +1982,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126589864"/>
-        <c:axId val="2126594744"/>
+        <c:axId val="2102716696"/>
+        <c:axId val="2102713656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126589864"/>
+        <c:axId val="2102716696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126594744"/>
+        <c:crossAx val="2102713656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126594744"/>
+        <c:axId val="2102713656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +2013,210 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126589864"/>
+        <c:crossAx val="2102716696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory (Gb)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sherbrooke!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2102690200"/>
+        <c:axId val="2102685400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2102690200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102685400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2102685400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102690200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1963,14 +2364,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>174488</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>420077</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>182304</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1993,14 +2394,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>55218</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>420077</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63034</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>51990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2016,6 +2417,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>585305</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>210252</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2349,7 +2782,7 @@
   <dimension ref="B1:V28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3483,10 +3916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3500,61 +3933,70 @@
     <col min="7" max="7" width="13.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="5" customWidth="1"/>
     <col min="9" max="11" width="15.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" ht="31" thickBot="1">
+      <c r="A1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="9">
+      <c r="AA1">
+        <v>5</v>
+      </c>
+      <c r="AC1">
+        <f>$S$3+$R$3*AA1</f>
+        <v>3.1896956871124535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="48">
         <v>42745</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="46">
         <v>900</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>-2</v>
       </c>
       <c r="E2" s="29">
@@ -3587,20 +4029,45 @@
       <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="43">
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <f>RANK(W2,$W$2:$W$10,1)</f>
+        <v>8</v>
+      </c>
+      <c r="W2" s="41">
         <f>B2</f>
         <v>900</v>
       </c>
-      <c r="W2" s="47">
+      <c r="X2" s="45">
         <f>K2</f>
         <v>0.47712125471966244</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="9">
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <f>VLOOKUP(Z2,$V$2:$X$10,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="AB2">
+        <f>VLOOKUP(Z2,$V$2:$X$10,3,0)</f>
+        <v>2.255272505103306</v>
+      </c>
+      <c r="AC2">
+        <f>$S$3+$R$3*AA2</f>
+        <v>2.5312722784696371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="48">
         <v>42745</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="47">
         <v>300</v>
       </c>
       <c r="C3" s="30">
@@ -3633,27 +4100,54 @@
         <v>1.0211892990699381</v>
       </c>
       <c r="L3" s="25"/>
-      <c r="O3" s="44">
+      <c r="O3" s="42">
         <f t="array" ref="O3:P3">LINEST(K3:K7,B3:B7)</f>
         <v>-1.582740487003726E-3</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="42">
         <v>1.7662461465734505</v>
       </c>
-      <c r="V3" s="43">
-        <f t="shared" ref="V3:V11" si="2">B3</f>
+      <c r="R3">
+        <f t="array" ref="R3:S3">LINEST(AB2:AB5,AA2:AA5)</f>
+        <v>-9.4060486948973846E-3</v>
+      </c>
+      <c r="S3">
+        <v>3.2367259305869407</v>
+      </c>
+      <c r="V3">
+        <f>RANK(W3,$W$2:$W$10,1)</f>
+        <v>5</v>
+      </c>
+      <c r="W3" s="41">
+        <f t="shared" ref="W3:W9" si="2">B3</f>
         <v>300</v>
       </c>
-      <c r="W3" s="47">
-        <f t="shared" ref="W3:W11" si="3">K3</f>
+      <c r="X3" s="45">
+        <f t="shared" ref="X3:X9" si="3">K3</f>
         <v>1.0211892990699381</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="9">
+      <c r="Z3">
+        <f>Z2+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <f>VLOOKUP(Z3,$V$2:$X$10,2,0)</f>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AB3">
+        <f>VLOOKUP(Z3,$V$2:$X$10,3,0)</f>
+        <v>2.8573324964312685</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC8" si="4">$S$3+$R$3*AA3</f>
+        <v>2.5303316736001471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="48">
         <v>42746</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="47">
         <v>500</v>
       </c>
       <c r="C4" s="30">
@@ -3688,31 +4182,55 @@
       <c r="L4" s="9"/>
       <c r="M4" s="15"/>
       <c r="N4" s="30"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="43" t="s">
         <v>26</v>
       </c>
       <c r="Q4" s="30"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="35"/>
+      <c r="R4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>26</v>
+      </c>
       <c r="T4" s="34"/>
       <c r="U4" s="36"/>
-      <c r="V4" s="43">
+      <c r="V4">
+        <f>RANK(W4,$W$2:$W$10,1)</f>
+        <v>6</v>
+      </c>
+      <c r="W4" s="41">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="W4" s="47">
+      <c r="X4" s="45">
         <f t="shared" si="3"/>
         <v>0.95424250943932487</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="9">
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z8" si="5">Z3+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <f>VLOOKUP(Z4,$V$2:$X$10,2,0)</f>
+        <v>150</v>
+      </c>
+      <c r="AB4">
+        <f>VLOOKUP(Z4,$V$2:$X$10,3,0)</f>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="4"/>
+        <v>1.8258186263523331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="48">
         <v>42746</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="47">
         <v>500</v>
       </c>
       <c r="C5" s="30">
@@ -3747,32 +4265,57 @@
       <c r="L5" s="9"/>
       <c r="M5" s="37"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="45">
+      <c r="O5" s="43">
         <v>75</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="44">
         <f>10^(O3*O5+P3)</f>
         <v>44.41611920892398</v>
       </c>
       <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43">
+      <c r="R5" s="43">
+        <v>5</v>
+      </c>
+      <c r="S5" s="44">
+        <f>10^(R3*R5+S3)</f>
+        <v>1547.7317334588931</v>
+      </c>
+      <c r="T5" s="39"/>
+      <c r="U5" s="40"/>
+      <c r="V5">
+        <f>RANK(W5,$W$2:$W$10,1)</f>
+        <v>6</v>
+      </c>
+      <c r="W5" s="41">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="W5" s="47">
+      <c r="X5" s="45">
         <f t="shared" si="3"/>
         <v>1.1139433523068367</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="9">
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <f>VLOOKUP(Z5,$V$2:$X$10,2,0)</f>
+        <v>200</v>
+      </c>
+      <c r="AB5">
+        <f>VLOOKUP(Z5,$V$2:$X$10,3,0)</f>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>1.3555161916074638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="48">
         <v>42746</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="47">
         <v>150</v>
       </c>
       <c r="C6" s="30">
@@ -3805,20 +4348,44 @@
         <v>1.6989700043360187</v>
       </c>
       <c r="L6" s="25"/>
-      <c r="V6" s="43">
+      <c r="S6" s="4">
+        <f>S5/60</f>
+        <v>25.795528890981551</v>
+      </c>
+      <c r="V6">
+        <f>RANK(W6,$W$2:$W$10,1)</f>
+        <v>3</v>
+      </c>
+      <c r="W6" s="41">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="W6" s="47">
+      <c r="X6" s="45">
         <f t="shared" si="3"/>
         <v>1.6989700043360187</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="9">
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <f>VLOOKUP(Z6,$V$2:$X$10,2,0)</f>
+        <v>300</v>
+      </c>
+      <c r="AB6">
+        <f>VLOOKUP(Z6,$V$2:$X$10,3,0)</f>
+        <v>1.0211892990699381</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>0.41491132211772541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="48">
         <v>42747</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="47">
         <v>200</v>
       </c>
       <c r="C7" s="30">
@@ -3851,21 +4418,41 @@
         <v>1.4313637641589874</v>
       </c>
       <c r="L7" s="25"/>
-      <c r="V7" s="43">
+      <c r="V7">
+        <f>RANK(W7,$W$2:$W$10,1)</f>
+        <v>4</v>
+      </c>
+      <c r="W7" s="41">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="W7" s="47">
+      <c r="X7" s="45">
         <f t="shared" si="3"/>
         <v>1.4313637641589874</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="9">
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <f>VLOOKUP(Z7,$V$2:$X$10,2,0)</f>
+        <v>500</v>
+      </c>
+      <c r="AB7">
+        <f>VLOOKUP(Z7,$V$2:$X$10,3,0)</f>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>-1.4662984168617514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="48">
         <v>42747</v>
       </c>
-      <c r="B8" s="15">
-        <v>100</v>
+      <c r="B8" s="47">
+        <v>75</v>
       </c>
       <c r="C8" s="30">
         <v>2</v>
@@ -3874,7 +4461,7 @@
         <v>-56</v>
       </c>
       <c r="E8" s="30">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F8" s="30">
         <v>24</v>
@@ -3882,109 +4469,225 @@
       <c r="G8" s="33">
         <v>180</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="35">
+        <v>31</v>
+      </c>
+      <c r="I8" s="34">
+        <v>1.5</v>
+      </c>
       <c r="J8" s="36">
-        <f t="shared" ref="J8" si="4">G8*F8/E8</f>
-        <v>90</v>
+        <f t="shared" ref="J8" si="6">G8*F8/E8</f>
+        <v>180</v>
       </c>
       <c r="K8" s="36">
         <f t="shared" si="1"/>
-        <v>1.954242509439325</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="V8" s="43">
+        <v>2.255272505103306</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8">
+        <f>RANK(W8,$W$2:$W$10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="41">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="W8" s="47">
+        <v>75</v>
+      </c>
+      <c r="X8" s="45">
         <f t="shared" si="3"/>
-        <v>1.954242509439325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="25"/>
-      <c r="V9" s="43">
+        <v>2.255272505103306</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AA8" t="e">
+        <f>VLOOKUP(Z8,$V$2:$X$10,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB8" t="e">
+        <f>VLOOKUP(Z8,$V$2:$X$10,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC8" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="48">
+        <v>42747</v>
+      </c>
+      <c r="B9" s="47">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E9" s="30">
+        <v>24</v>
+      </c>
+      <c r="F9" s="30">
+        <v>24</v>
+      </c>
+      <c r="G9" s="33">
+        <v>720</v>
+      </c>
+      <c r="H9" s="35">
+        <v>31</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" ref="J9" si="7">G9*F9/E9</f>
+        <v>720</v>
+      </c>
+      <c r="K9" s="36">
+        <f t="shared" ref="K9" si="8">LOG(J9)</f>
+        <v>2.8573324964312685</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9">
+        <f>RANK(W9,$W$2:$W$10,1)</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="47">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="X9" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="9"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="25"/>
-      <c r="V10" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="9"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="25"/>
-      <c r="V11" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+        <v>2.8573324964312685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="48">
+        <v>42747</v>
+      </c>
+      <c r="B10" s="47">
+        <v>150</v>
+      </c>
+      <c r="C10" s="30">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E10" s="30">
+        <v>48</v>
+      </c>
+      <c r="F10" s="30">
+        <v>24</v>
+      </c>
+      <c r="G10" s="33">
+        <v>110</v>
+      </c>
+      <c r="H10" s="35">
+        <v>31</v>
+      </c>
+      <c r="I10" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="36">
+        <f t="shared" ref="J10" si="9">G10*F10/E10</f>
+        <v>55</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" ref="K10" si="10">LOG(J10)</f>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="41"/>
+      <c r="X10" s="45"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="48">
+        <v>42747</v>
+      </c>
+      <c r="B11" s="47">
+        <v>150</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E11" s="30">
+        <v>48</v>
+      </c>
+      <c r="F11" s="30">
+        <v>24</v>
+      </c>
+      <c r="G11" s="33">
+        <v>110</v>
+      </c>
+      <c r="H11" s="35">
+        <v>31</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="36">
+        <f t="shared" ref="J11" si="11">G11*F11/E11</f>
+        <v>55</v>
+      </c>
+      <c r="K11" s="36">
+        <f t="shared" ref="K11" si="12">LOG(J11)</f>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="41"/>
+      <c r="X11" s="45"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="48">
+        <v>42750</v>
+      </c>
+      <c r="B12" s="47">
+        <v>150</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30">
+        <v>-56</v>
+      </c>
+      <c r="E12" s="30">
+        <v>48</v>
+      </c>
+      <c r="F12" s="30">
+        <v>24</v>
+      </c>
       <c r="G12" s="33"/>
       <c r="H12" s="35"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="9"/>
-      <c r="B13" s="15"/>
+      <c r="J12" s="36">
+        <f t="shared" ref="J12" si="13">G12*F12/E12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="36" t="e">
+        <f t="shared" ref="K12" si="14">LOG(J12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="48"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -3996,9 +4699,9 @@
       <c r="K13" s="36"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="9"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:29">
+      <c r="A14" s="48"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -4010,9 +4713,9 @@
       <c r="K14" s="36"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:29">
+      <c r="A15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
@@ -4024,9 +4727,9 @@
       <c r="K15" s="36"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:29">
       <c r="A16" s="9"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -4040,7 +4743,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -4054,7 +4757,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -4068,7 +4771,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -4082,7 +4785,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="9"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -4136,20 +4839,6 @@
       <c r="K23" s="36"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="9"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="25"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/__cpttime.xlsx
+++ b/__cpttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="47620" windowHeight="21380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="14360" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="local" sheetId="1" r:id="rId1"/>
@@ -993,11 +993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2036759224"/>
-        <c:axId val="2036766248"/>
+        <c:axId val="2147439672"/>
+        <c:axId val="2144580264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2036759224"/>
+        <c:axId val="2147439672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,12 +1030,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2036766248"/>
+        <c:crossAx val="2144580264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2036766248"/>
+        <c:axId val="2144580264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2036759224"/>
+        <c:crossAx val="2147439672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1211,11 +1211,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102867768"/>
-        <c:axId val="2102864776"/>
+        <c:axId val="2144551304"/>
+        <c:axId val="2144548312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102867768"/>
+        <c:axId val="2144551304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,12 +1225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102864776"/>
+        <c:crossAx val="2144548312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102864776"/>
+        <c:axId val="2144548312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102867768"/>
+        <c:crossAx val="2144551304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1347,11 +1347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102842168"/>
-        <c:axId val="2102839080"/>
+        <c:axId val="2144525672"/>
+        <c:axId val="2144522584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102842168"/>
+        <c:axId val="2144525672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,12 +1361,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102839080"/>
+        <c:crossAx val="2144522584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102839080"/>
+        <c:axId val="2144522584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102842168"/>
+        <c:crossAx val="2144525672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1487,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102812440"/>
-        <c:axId val="2102809480"/>
+        <c:axId val="2144496168"/>
+        <c:axId val="2144493208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102812440"/>
+        <c:axId val="2144496168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,12 +1501,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102809480"/>
+        <c:crossAx val="2144493208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102809480"/>
+        <c:axId val="2144493208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1518,7 +1518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102812440"/>
+        <c:crossAx val="2144496168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1643,7 +1643,7 @@
                   <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150.0</c:v>
+                  <c:v>150.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,7 +1685,7 @@
                   <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,11 +1700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102757432"/>
-        <c:axId val="2102752616"/>
+        <c:axId val="2144501096"/>
+        <c:axId val="2144483384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102757432"/>
+        <c:axId val="2144501096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +1715,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102752616"/>
+        <c:crossAx val="2144483384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102752616"/>
+        <c:axId val="2144483384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102757432"/>
+        <c:crossAx val="2144501096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1865,7 +1865,7 @@
                   <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150.0</c:v>
+                  <c:v>150.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +1907,7 @@
                   <c:v>1.740362689494244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.929418925714293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,11 +1982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102716696"/>
-        <c:axId val="2102713656"/>
+        <c:axId val="2145709432"/>
+        <c:axId val="2145728728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102716696"/>
+        <c:axId val="2145709432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +1997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102713656"/>
+        <c:crossAx val="2145728728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102713656"/>
+        <c:axId val="2145728728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102716696"/>
+        <c:crossAx val="2145709432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2131,7 +2131,7 @@
                   <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150.0</c:v>
+                  <c:v>150.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,6 +2170,9 @@
                   <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>31.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2185,11 +2188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102690200"/>
-        <c:axId val="2102685400"/>
+        <c:axId val="2089576728"/>
+        <c:axId val="2089581672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102690200"/>
+        <c:axId val="2089576728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2203,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102685400"/>
+        <c:crossAx val="2089581672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102685400"/>
+        <c:axId val="2089581672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102690200"/>
+        <c:crossAx val="2089576728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3919,7 +3922,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4036,7 +4039,7 @@
         <v>25</v>
       </c>
       <c r="V2">
-        <f>RANK(W2,$W$2:$W$10,1)</f>
+        <f t="shared" ref="V2:V9" si="0">RANK(W2,$W$2:$W$10,1)</f>
         <v>8</v>
       </c>
       <c r="W2" s="41">
@@ -4051,11 +4054,11 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <f>VLOOKUP(Z2,$V$2:$X$10,2,0)</f>
+        <f t="shared" ref="AA2:AA8" si="1">VLOOKUP(Z2,$V$2:$X$10,2,0)</f>
         <v>75</v>
       </c>
       <c r="AB2">
-        <f>VLOOKUP(Z2,$V$2:$X$10,3,0)</f>
+        <f t="shared" ref="AB2:AB8" si="2">VLOOKUP(Z2,$V$2:$X$10,3,0)</f>
         <v>2.255272505103306</v>
       </c>
       <c r="AC2">
@@ -4092,11 +4095,11 @@
         <v>0.6</v>
       </c>
       <c r="J3" s="36">
-        <f t="shared" ref="J3:J7" si="0">G3*F3/E3</f>
+        <f t="shared" ref="J3:J7" si="3">G3*F3/E3</f>
         <v>10.5</v>
       </c>
       <c r="K3" s="36">
-        <f t="shared" ref="K3:K8" si="1">LOG(J3)</f>
+        <f t="shared" ref="K3:K8" si="4">LOG(J3)</f>
         <v>1.0211892990699381</v>
       </c>
       <c r="L3" s="25"/>
@@ -4115,15 +4118,15 @@
         <v>3.2367259305869407</v>
       </c>
       <c r="V3">
-        <f>RANK(W3,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W3" s="41">
-        <f t="shared" ref="W3:W9" si="2">B3</f>
+        <f t="shared" ref="W3:W9" si="5">B3</f>
         <v>300</v>
       </c>
       <c r="X3" s="45">
-        <f t="shared" ref="X3:X9" si="3">K3</f>
+        <f t="shared" ref="X3:X9" si="6">K3</f>
         <v>1.0211892990699381</v>
       </c>
       <c r="Z3">
@@ -4131,15 +4134,15 @@
         <v>2</v>
       </c>
       <c r="AA3">
-        <f>VLOOKUP(Z3,$V$2:$X$10,2,0)</f>
+        <f t="shared" si="1"/>
         <v>75.099999999999994</v>
       </c>
       <c r="AB3">
-        <f>VLOOKUP(Z3,$V$2:$X$10,3,0)</f>
+        <f t="shared" si="2"/>
         <v>2.8573324964312685</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC8" si="4">$S$3+$R$3*AA3</f>
+        <f t="shared" ref="AC3:AC8" si="7">$S$3+$R$3*AA3</f>
         <v>2.5303316736001471</v>
       </c>
     </row>
@@ -4172,11 +4175,11 @@
         <v>0.2</v>
       </c>
       <c r="J4" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K4" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.95424250943932487</v>
       </c>
       <c r="L4" s="9"/>
@@ -4198,31 +4201,31 @@
       <c r="T4" s="34"/>
       <c r="U4" s="36"/>
       <c r="V4">
-        <f>RANK(W4,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="W4" s="41">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="X4" s="45">
+        <f t="shared" si="6"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z8" si="8">Z3+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AB4">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="X4" s="45">
-        <f t="shared" si="3"/>
-        <v>0.95424250943932487</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4:Z8" si="5">Z3+1</f>
-        <v>3</v>
-      </c>
-      <c r="AA4">
-        <f>VLOOKUP(Z4,$V$2:$X$10,2,0)</f>
-        <v>150</v>
-      </c>
-      <c r="AB4">
-        <f>VLOOKUP(Z4,$V$2:$X$10,3,0)</f>
         <v>1.6989700043360187</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8258186263523331</v>
       </c>
     </row>
@@ -4255,11 +4258,11 @@
         <v>0.8</v>
       </c>
       <c r="J5" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="K5" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1139433523068367</v>
       </c>
       <c r="L5" s="9"/>
@@ -4283,31 +4286,31 @@
       <c r="T5" s="39"/>
       <c r="U5" s="40"/>
       <c r="V5">
-        <f>RANK(W5,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="W5" s="41">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="X5" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="X5" s="45">
-        <f t="shared" si="3"/>
-        <v>1.1139433523068367</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AA5">
-        <f>VLOOKUP(Z5,$V$2:$X$10,2,0)</f>
-        <v>200</v>
-      </c>
-      <c r="AB5">
-        <f>VLOOKUP(Z5,$V$2:$X$10,3,0)</f>
         <v>1.4313637641589874</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3555161916074638</v>
       </c>
     </row>
@@ -4340,11 +4343,11 @@
         <v>0.7</v>
       </c>
       <c r="J6" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K6" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6989700043360187</v>
       </c>
       <c r="L6" s="25"/>
@@ -4353,31 +4356,31 @@
         <v>25.795528890981551</v>
       </c>
       <c r="V6">
-        <f>RANK(W6,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="W6" s="41">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="X6" s="45">
+        <f t="shared" si="6"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="X6" s="45">
-        <f t="shared" si="3"/>
-        <v>1.6989700043360187</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AA6">
-        <f>VLOOKUP(Z6,$V$2:$X$10,2,0)</f>
-        <v>300</v>
-      </c>
-      <c r="AB6">
-        <f>VLOOKUP(Z6,$V$2:$X$10,3,0)</f>
         <v>1.0211892990699381</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41491132211772541</v>
       </c>
     </row>
@@ -4410,40 +4413,40 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="K7" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4313637641589874</v>
       </c>
       <c r="L7" s="25"/>
       <c r="V7">
-        <f>RANK(W7,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W7" s="41">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="45">
+        <f t="shared" si="6"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="X7" s="45">
-        <f t="shared" si="3"/>
-        <v>1.4313637641589874</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AA7">
-        <f>VLOOKUP(Z7,$V$2:$X$10,2,0)</f>
-        <v>500</v>
-      </c>
-      <c r="AB7">
-        <f>VLOOKUP(Z7,$V$2:$X$10,3,0)</f>
         <v>0.95424250943932487</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.4662984168617514</v>
       </c>
     </row>
@@ -4476,42 +4479,42 @@
         <v>1.5</v>
       </c>
       <c r="J8" s="36">
-        <f t="shared" ref="J8" si="6">G8*F8/E8</f>
+        <f t="shared" ref="J8" si="9">G8*F8/E8</f>
         <v>180</v>
       </c>
       <c r="K8" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.255272505103306</v>
       </c>
       <c r="L8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="V8">
-        <f>RANK(W8,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W8" s="41">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="X8" s="45">
+        <f t="shared" si="6"/>
+        <v>2.255272505103306</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AA8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB8" t="e">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="X8" s="45">
-        <f t="shared" si="3"/>
-        <v>2.255272505103306</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AA8" t="e">
-        <f>VLOOKUP(Z8,$V$2:$X$10,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AB8" t="e">
-        <f>VLOOKUP(Z8,$V$2:$X$10,3,0)</f>
-        <v>#N/A</v>
-      </c>
       <c r="AC8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4544,26 +4547,26 @@
         <v>1.5</v>
       </c>
       <c r="J9" s="36">
-        <f t="shared" ref="J9" si="7">G9*F9/E9</f>
+        <f t="shared" ref="J9" si="10">G9*F9/E9</f>
         <v>720</v>
       </c>
       <c r="K9" s="36">
-        <f t="shared" ref="K9" si="8">LOG(J9)</f>
+        <f t="shared" ref="K9" si="11">LOG(J9)</f>
         <v>2.8573324964312685</v>
       </c>
       <c r="L9" s="25" t="s">
         <v>28</v>
       </c>
       <c r="V9">
-        <f>RANK(W9,$W$2:$W$10,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="W9" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75.099999999999994</v>
       </c>
       <c r="X9" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.8573324964312685</v>
       </c>
     </row>
@@ -4596,11 +4599,11 @@
         <v>1.5</v>
       </c>
       <c r="J10" s="36">
-        <f t="shared" ref="J10" si="9">G10*F10/E10</f>
+        <f t="shared" ref="J10" si="12">G10*F10/E10</f>
         <v>55</v>
       </c>
       <c r="K10" s="36">
-        <f t="shared" ref="K10" si="10">LOG(J10)</f>
+        <f t="shared" ref="K10" si="13">LOG(J10)</f>
         <v>1.7403626894942439</v>
       </c>
       <c r="L10" s="25" t="s">
@@ -4638,11 +4641,11 @@
         <v>1.5</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" ref="J11" si="11">G11*F11/E11</f>
+        <f t="shared" ref="J11" si="14">G11*F11/E11</f>
         <v>55</v>
       </c>
       <c r="K11" s="36">
-        <f t="shared" ref="K11" si="12">LOG(J11)</f>
+        <f t="shared" ref="K11" si="15">LOG(J11)</f>
         <v>1.7403626894942439</v>
       </c>
       <c r="L11" s="25" t="s">
@@ -4656,7 +4659,7 @@
         <v>42750</v>
       </c>
       <c r="B12" s="47">
-        <v>150</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="C12" s="30">
         <v>2</v>
@@ -4670,16 +4673,22 @@
       <c r="F12" s="30">
         <v>24</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="34"/>
+      <c r="G12" s="33">
+        <v>170</v>
+      </c>
+      <c r="H12" s="35">
+        <v>31</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1.5</v>
+      </c>
       <c r="J12" s="36">
-        <f t="shared" ref="J12" si="13">G12*F12/E12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="36" t="e">
-        <f t="shared" ref="K12" si="14">LOG(J12)</f>
-        <v>#NUM!</v>
+        <f t="shared" ref="J12" si="16">G12*F12/E12</f>
+        <v>85</v>
+      </c>
+      <c r="K12" s="36">
+        <f t="shared" ref="K12" si="17">LOG(J12)</f>
+        <v>1.9294189257142926</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>30</v>
